--- a/biology/Médecine/Hôpital_Armand-Trousseau/Hôpital_Armand-Trousseau.xlsx
+++ b/biology/Médecine/Hôpital_Armand-Trousseau/Hôpital_Armand-Trousseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Armand-Trousseau</t>
+          <t>Hôpital_Armand-Trousseau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital Armand-Trousseau est un hôpital de l'Assistance publique - hôpitaux de Paris (AP-HP) situé 26, avenue du Docteur-Arnold-Netter et rue Lasson (entrée des urgences) dans le 12e arrondissement de Paris. Il est un des sites du Groupe Hospitalier Sorbonne Université.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Armand-Trousseau</t>
+          <t>Hôpital_Armand-Trousseau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Premier hôpital (rue du Faubourg-Saint-Antoine)
-En 1674, l'hôpital des Enfants-Trouvés s'établit rue du Faubourg-Saint-Antoine[1]. Après la Révolution, il est renommé hospice des orphelins et n'accueille plus que les enfants de deux à douze ans[2].
-L'entrée principale et la chapelle se trouvait rue du Faubourg-Saint-Antoine, mais le site s'étendait jusqu'à la rue de Charenton[3].
+          <t>Premier hôpital (rue du Faubourg-Saint-Antoine)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1674, l'hôpital des Enfants-Trouvés s'établit rue du Faubourg-Saint-Antoine. Après la Révolution, il est renommé hospice des orphelins et n'accueille plus que les enfants de deux à douze ans.
+L'entrée principale et la chapelle se trouvait rue du Faubourg-Saint-Antoine, mais le site s'étendait jusqu'à la rue de Charenton.
 Il est renommé hôpital Sainte-Marguerite en 1839 avant d'être transformé en 1854 en hôpital pour enfants sous le nom d'Hôpital Sainte-Eugénie. Il est renommé en 1880 en l'honneur d'Armand Trousseau (1801-1867), médecin des hôpitaux (Hôtel-Dieu de Paris au 89 rue de Charenton, 75012 et hôpital Saint-Antoine), titulaire de la chaire de clinique médicale de l'Hôtel-Dieu.
 L'hôpital est transféré sur son site actuel en 1901. Les anciens locaux sont rasés et à leur emplacement sont tracés les rues Antoine-Vollon, Charles-Baudelaire, Théophile-Roussel, de Prague, Émilo-Castelar, ainsi que le square Trousseau.
-Second hôpital (avenue du Docteur-Arnold-Netter)
-L'hôpital actuel est reconstruit en 1901 sur les plans des architectes Alexandre Maistrasse et Marcel Berger, mandatés par l'assistance publique.
-L'hôpital est spécialisé dans les soins pédiatriques et, depuis janvier 2006, le polyhandicap après son regroupement avec l'hôpital de La Roche-Guyon situé dans le Val-d'Oise.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Armand-Trousseau</t>
+          <t>Hôpital_Armand-Trousseau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Second hôpital (avenue du Docteur-Arnold-Netter)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital actuel est reconstruit en 1901 sur les plans des architectes Alexandre Maistrasse et Marcel Berger, mandatés par l'assistance publique.
+L'hôpital est spécialisé dans les soins pédiatriques et, depuis janvier 2006, le polyhandicap après son regroupement avec l'hôpital de La Roche-Guyon situé dans le Val-d'Oise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_Armand-Trousseau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Armand-Trousseau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est accessible à proximité par la ligne 6 à la station Bel-Air.
 </t>
